--- a/biology/Médecine/Rate/Rate.xlsx
+++ b/biology/Médecine/Rate/Rate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rate[1] est un organe profond, situé dans l'hypocondre gauche en regard de la 10e côte (côte splénique), accolé à la face latérale de l'estomac, la grande courbure[pas clair]. Elle est donc en position thoraco-abdominale. Elle joue un rôle dans l'immunité et dans le renouvellement des cellules sanguines.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rate est un organe profond, situé dans l'hypocondre gauche en regard de la 10e côte (côte splénique), accolé à la face latérale de l'estomac, la grande courbure[pas clair]. Elle est donc en position thoraco-abdominale. Elle joue un rôle dans l'immunité et dans le renouvellement des cellules sanguines.
 Malgré sa topographie anatomique dans la cavité abdominale, recouverte de péritoine viscéral, la rate ne fait nullement partie de l'appareil digestif : elle n'a ni fonction endocrine, ni exocrine, uniquement des fonctions hématologiques et immunitaires.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De couleur rouge ou pourpre foncé, la rate mesure chez l'être humain en moyenne 12 × 7 × 4 cm pour une masse moyenne de 200 g, c'est l'organe lymphoïde le plus volumineux.
 La rate comprend classiquement trois faces et une base :
@@ -550,7 +564,9 @@
           <t>Constitution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La rate est entourée d'une capsule conjonctive très souple, riche en réticuline et en élastine, envoyant des cloisons conjonctives dans le parenchyme splénique. Ces cloisons partagent la rate en lobules spléniques qui sont les unités fonctionnelles de la rate.
 Elle est constituée de deux sortes de tissus :
@@ -583,7 +599,9 @@
           <t>Vascularisation et innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La vascularisation artérielle de la rate se fait principalement par l'artère splénique (artère liénale). Celle-ci étant l'une des 3 branches du tronc cœliaque qui naît de l'aorte au niveau de la 12e vertèbre thoracique. Après un trajet très sinueux sur le bord supérieur du pancréas, elle pénètre dans le parenchyme par le hile en se divisant en deux branches supérieure et inférieure ; ceci explique l'existence de la splénectomie partielle. Ensuite ces branches se divisent en artères trabéculaires qui cheminent dans les travées conjonctives. Elles-mêmes donnent les artères centrales en sortant de la travée, qui s'entourent d'un manchon de pulpe blanche (surtout lymphocytes T). L'artère centrale se poursuit et sort de la pulpe blanche pour donner des plus petites branches : les « artères pénicillées ». Celles-ci se finissent par des capillaires avec des sortes de bouchons qui entourent leur terminaison : ce sont les capillaires à housse. Ces capillaires terminaux sont obturés et il va y avoir des passages entre les cellules endothéliales terminales, et le sang va sortir des vaisseaux et traverser le parenchyme splénique pour rejoindre les sinus veineux.
 On a donc une circulation fermée et une circulation ouverte.
@@ -619,11 +637,13 @@
           <t>Variations anatomiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les rates surnuméraires, dites accessoires, sont fréquentes, retrouvées dans plus de 10 % des cas des scanners abdominaux[2]. Elles ne causent habituellement pas de problème mais des cas de torsion, se manifestant par une douleur abdominale aiguë, ont été décrits[3]. Dans ce cas, on retrouve une rate principale et des secondaires.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rates surnuméraires, dites accessoires, sont fréquentes, retrouvées dans plus de 10 % des cas des scanners abdominaux. Elles ne causent habituellement pas de problème mais des cas de torsion, se manifestant par une douleur abdominale aiguë, ont été décrits. Dans ce cas, on retrouve une rate principale et des secondaires.
 On peut également avoir des polysplénies, on retrouve alors plusieurs rate de taille équivalente, sans une dominante. Dans ce cas, on a souvent d'autres malformations : situs invertus, mauvaise disposition des vaisseaux abdominaux…
-La rate, au lieu d'être lisse, peut être polylobée. Rarement elle peut être ectopique, voire, fusionnée avec une gonade[4].
+La rate, au lieu d'être lisse, peut être polylobée. Rarement elle peut être ectopique, voire, fusionnée avec une gonade.
 </t>
         </is>
       </c>
@@ -652,12 +672,14 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La rate a trois rôles essentiels :
 rôle dans l'immunité, notamment l'immunité cellulaire, elle fait ainsi partie des organes lymphoïdes secondaires. Elle intervient tout particulièrement dans le contrôle des infections à bactéries encapsulées, en particulier les pneumocoques et les méningocoques ;
 rôle dans la régulation de la formation et de la destruction des éléments figurés du sang : on dit que la rate est le « cimetière des globules rouges ». La rate est le lieu de l'hématopoïèse durant la vie fœtale (3 à 7 mois), de concert avec le foie (1er au 9e mois), puis petit à petit remplacé par la moelle osseuse (à partir du 4e mois), qui devient l'organe hématopoïetique exclusif après la naissance. En cas d'atteinte de la fonction hématopoïétique de la moelle osseuse, on peut observer une reprise de l'hématopoïèse splénique.
-rôle dans le stockage des globules rouges, des lymphocytes et d'autres éléments figurés du sang. Chez l'homme, jusqu'à 30% des globules rouges sont séquestrés dans la rate et libérés en cas d'hypovolémie et d'hypoxie à la suite d'une stimulation de la splénocontraction par le système nerveux sympathique. Elle stocke aussi jusqu'à 25% des plaquettes sanguines. En outre, un grand pourcentage de lymphocytes est stocké dans la rate à tout moment[5].</t>
+rôle dans le stockage des globules rouges, des lymphocytes et d'autres éléments figurés du sang. Chez l'homme, jusqu'à 30% des globules rouges sont séquestrés dans la rate et libérés en cas d'hypovolémie et d'hypoxie à la suite d'une stimulation de la splénocontraction par le système nerveux sympathique. Elle stocke aussi jusqu'à 25% des plaquettes sanguines. En outre, un grand pourcentage de lymphocytes est stocké dans la rate à tout moment.</t>
         </is>
       </c>
     </row>
@@ -685,7 +707,9 @@
           <t>Atteintes spléniques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>absence de rate : asplénie congénitale. Très rare, elle expose à des infections sévères.
 polysplénie : présence de plusieurs rates ; beaucoup plus fréquente en sachant que les rates surnuméraires sont en général de toute petite taille. Elles pourront en revanche se développer en cas d'ablation de la rate.
@@ -718,7 +742,9 @@
           <t>Splénectomie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La rate n'est pas indispensable à la vie. Pour cette raison la splénectomie, ou ablation de la rate, peut être indiquée dans différentes situations :
 en cas de traumatisme, pour prévenir une rupture de la rate ;
@@ -755,9 +781,11 @@
           <t>Théories archaïques</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Anciens[Qui ?] (Hippocrate) disaient qu'en automne il fallait « faire rire la rate », en mangeant des racines (panais, radis noir, pissenlit, etc.), ce qui permettait de mieux supporter le froid et d'être de meilleure humeur. La rate, selon la théorie des humeurs, servait surtout à réguler les humeurs. Si on mangeait assez de racines, on évitait les dépressions liées à l'hiver[6].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Anciens[Qui ?] (Hippocrate) disaient qu'en automne il fallait « faire rire la rate », en mangeant des racines (panais, radis noir, pissenlit, etc.), ce qui permettait de mieux supporter le froid et d'être de meilleure humeur. La rate, selon la théorie des humeurs, servait surtout à réguler les humeurs. Si on mangeait assez de racines, on évitait les dépressions liées à l'hiver.
 Les Anciens attribuaient à la rate de nombreuses propriétés dont celle de provoquer les points de côté et de nuire par conséquent à la course. On croyait ainsi que les Anciens desséchaient la rate des coureurs et de leurs chevaux pour en améliorer les performances.
 </t>
         </is>
@@ -787,7 +815,9 @@
           <t>Images supplémentaires</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Le tronc cœliaque et ses branches.
